--- a/biology/Histoire de la zoologie et de la botanique/Elon_Howard_Eaton/Elon_Howard_Eaton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Elon_Howard_Eaton/Elon_Howard_Eaton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elon Howard Eaton est un ornithologue américain, né le 8 octobre 1866 à Collins dans l'État de New York et mort le 27 mars 1934 à Geneva dans l'État de New York.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Luzern et de Sophia (née Newton) Eaton. Après des études au Griffiths’ Institute de Springville, il obtient son  Bachelor of Arts à l’université de Rochester (1890), puis son Master of Arts (1893), son Master of Sciences (1911) et enfin son Doctorat of Sciences (1927). Eaton fréquente également l’université Columbia de 1899 à 1900.
 Le 4 septembre 1909, il se marie avec Gertrude Yeames d’Arlington, union dont naîtra deux enfants. Il se remarie le 1er septembre 1915 avec Ester Woodman, dont naîtra aussi deux enfants.
@@ -546,10 +560,12 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1910-1914 : Birds of New York[1] (Memoir n° 12, University of the State of New York, Albany)
-1914 : Birds of western New York[2] (Proceedings of the Rochester Academy of Science, Rochester, N.Y.).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1910-1914 : Birds of New York (Memoir n° 12, University of the State of New York, Albany)
+1914 : Birds of western New York (Proceedings of the Rochester Academy of Science, Rochester, N.Y.).</t>
         </is>
       </c>
     </row>
